--- a/LDP_summary.xlsx
+++ b/LDP_summary.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CL84"/>
+  <dimension ref="A1:CL86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25771,6 +25771,610 @@
         <v>81.291</v>
       </c>
     </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>D4</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>LDP4421</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>LDP 100</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>Attia</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>SITE MANAGER - CIVIL</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Mohamed</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>Mohamed</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>mohamed.attia@nesmapartners.com</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>2025-04-08</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>03:54:34</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
+        <v>101</v>
+      </c>
+      <c r="L85" t="n">
+        <v>68</v>
+      </c>
+      <c r="M85" t="n">
+        <v>70</v>
+      </c>
+      <c r="N85" t="n">
+        <v>61</v>
+      </c>
+      <c r="O85" t="n">
+        <v>72</v>
+      </c>
+      <c r="P85" t="n">
+        <v>62</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>70</v>
+      </c>
+      <c r="R85" t="n">
+        <v>76</v>
+      </c>
+      <c r="S85" t="n">
+        <v>68</v>
+      </c>
+      <c r="T85" t="n">
+        <v>40</v>
+      </c>
+      <c r="U85" t="n">
+        <v>80</v>
+      </c>
+      <c r="V85" t="n">
+        <v>86</v>
+      </c>
+      <c r="W85" t="n">
+        <v>56</v>
+      </c>
+      <c r="X85" t="n">
+        <v>40</v>
+      </c>
+      <c r="Y85" t="n">
+        <v>72</v>
+      </c>
+      <c r="Z85" t="n">
+        <v>53</v>
+      </c>
+      <c r="AA85" t="n">
+        <v>80</v>
+      </c>
+      <c r="AB85" t="n">
+        <v>64</v>
+      </c>
+      <c r="AC85" t="n">
+        <v>72</v>
+      </c>
+      <c r="AD85" t="n">
+        <v>86</v>
+      </c>
+      <c r="AE85" t="n">
+        <v>80</v>
+      </c>
+      <c r="AF85" t="n">
+        <v>70</v>
+      </c>
+      <c r="AG85" t="n">
+        <v>94</v>
+      </c>
+      <c r="AH85" t="n">
+        <v>60</v>
+      </c>
+      <c r="AI85" t="n">
+        <v>52</v>
+      </c>
+      <c r="AJ85" t="inlineStr">
+        <is>
+          <t>LDP 100</t>
+        </is>
+      </c>
+      <c r="AK85" t="inlineStr">
+        <is>
+          <t>Attia</t>
+        </is>
+      </c>
+      <c r="AL85" t="inlineStr"/>
+      <c r="AM85" t="inlineStr">
+        <is>
+          <t>Mohamed</t>
+        </is>
+      </c>
+      <c r="AN85" t="n">
+        <v>45745</v>
+      </c>
+      <c r="AO85" t="n">
+        <v>0.09439814814814813</v>
+      </c>
+      <c r="AP85" t="inlineStr">
+        <is>
+          <t>The Mentoring Leader</t>
+        </is>
+      </c>
+      <c r="AQ85" t="inlineStr">
+        <is>
+          <t>The Empowering Delegator</t>
+        </is>
+      </c>
+      <c r="AR85" t="n">
+        <v>50</v>
+      </c>
+      <c r="AS85" t="n">
+        <v>73</v>
+      </c>
+      <c r="AT85" t="n">
+        <v>79</v>
+      </c>
+      <c r="AU85" t="n">
+        <v>100</v>
+      </c>
+      <c r="AV85" t="n">
+        <v>94</v>
+      </c>
+      <c r="AW85" t="n">
+        <v>87</v>
+      </c>
+      <c r="AX85" t="n">
+        <v>93</v>
+      </c>
+      <c r="AY85" t="n">
+        <v>96</v>
+      </c>
+      <c r="AZ85" t="n">
+        <v>82</v>
+      </c>
+      <c r="BA85" t="n">
+        <v>56</v>
+      </c>
+      <c r="BB85" t="n">
+        <v>100</v>
+      </c>
+      <c r="BC85" t="n">
+        <v>69</v>
+      </c>
+      <c r="BD85" t="n">
+        <v>88</v>
+      </c>
+      <c r="BE85" t="n">
+        <v>49</v>
+      </c>
+      <c r="BF85" t="n">
+        <v>74</v>
+      </c>
+      <c r="BG85" t="n">
+        <v>68</v>
+      </c>
+      <c r="BH85" t="n">
+        <v>73</v>
+      </c>
+      <c r="BI85" t="n">
+        <v>95</v>
+      </c>
+      <c r="BJ85" t="n">
+        <v>82</v>
+      </c>
+      <c r="BK85" t="n">
+        <v>61</v>
+      </c>
+      <c r="BL85" t="n">
+        <v>97</v>
+      </c>
+      <c r="BM85" t="n">
+        <v>72</v>
+      </c>
+      <c r="BN85" t="n">
+        <v>42</v>
+      </c>
+      <c r="BO85" t="n">
+        <v>96</v>
+      </c>
+      <c r="BP85" t="n">
+        <v>76</v>
+      </c>
+      <c r="BQ85" t="n">
+        <v>91</v>
+      </c>
+      <c r="BR85" t="n">
+        <v>94</v>
+      </c>
+      <c r="BS85" t="n">
+        <v>53</v>
+      </c>
+      <c r="BT85" t="n">
+        <v>93</v>
+      </c>
+      <c r="BU85" t="n">
+        <v>52</v>
+      </c>
+      <c r="BV85" t="n">
+        <v>67</v>
+      </c>
+      <c r="BW85" t="n">
+        <v>60</v>
+      </c>
+      <c r="BX85" t="n">
+        <v>60</v>
+      </c>
+      <c r="BY85" t="n">
+        <v>83</v>
+      </c>
+      <c r="BZ85" t="n">
+        <v>60</v>
+      </c>
+      <c r="CA85" t="n">
+        <v>66</v>
+      </c>
+      <c r="CB85" t="n">
+        <v>72</v>
+      </c>
+      <c r="CC85" t="n">
+        <v>74</v>
+      </c>
+      <c r="CD85" t="n">
+        <v>75</v>
+      </c>
+      <c r="CE85" t="n">
+        <v>67</v>
+      </c>
+      <c r="CF85" t="n">
+        <v>83</v>
+      </c>
+      <c r="CG85" t="n">
+        <v>76</v>
+      </c>
+      <c r="CH85" t="n">
+        <v>61</v>
+      </c>
+      <c r="CI85" t="n">
+        <v>81.59999999999999</v>
+      </c>
+      <c r="CJ85" t="n">
+        <v>61.75</v>
+      </c>
+      <c r="CK85" t="n">
+        <v>80.2</v>
+      </c>
+      <c r="CL85" t="n">
+        <v>70.66549999999999</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>D11</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>LDP1153</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>LDP 100</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>Kamel</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>PROJECT CONTROL MANAGER</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>Mahmoud</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>Mahmoud</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>mahmoud.kamel@nesmapartners.com</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>2025-04-12</t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>02:54:34</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
+        <v>109</v>
+      </c>
+      <c r="L86" t="n">
+        <v>72</v>
+      </c>
+      <c r="M86" t="n">
+        <v>60</v>
+      </c>
+      <c r="N86" t="n">
+        <v>79</v>
+      </c>
+      <c r="O86" t="n">
+        <v>81</v>
+      </c>
+      <c r="P86" t="n">
+        <v>82</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>74</v>
+      </c>
+      <c r="R86" t="n">
+        <v>40</v>
+      </c>
+      <c r="S86" t="n">
+        <v>56</v>
+      </c>
+      <c r="T86" t="n">
+        <v>40</v>
+      </c>
+      <c r="U86" t="n">
+        <v>80</v>
+      </c>
+      <c r="V86" t="n">
+        <v>60</v>
+      </c>
+      <c r="W86" t="n">
+        <v>40</v>
+      </c>
+      <c r="X86" t="n">
+        <v>48</v>
+      </c>
+      <c r="Y86" t="n">
+        <v>90</v>
+      </c>
+      <c r="Z86" t="n">
+        <v>80</v>
+      </c>
+      <c r="AA86" t="n">
+        <v>100</v>
+      </c>
+      <c r="AB86" t="n">
+        <v>78</v>
+      </c>
+      <c r="AC86" t="n">
+        <v>52</v>
+      </c>
+      <c r="AD86" t="n">
+        <v>74</v>
+      </c>
+      <c r="AE86" t="n">
+        <v>78</v>
+      </c>
+      <c r="AF86" t="n">
+        <v>100</v>
+      </c>
+      <c r="AG86" t="n">
+        <v>100</v>
+      </c>
+      <c r="AH86" t="n">
+        <v>76</v>
+      </c>
+      <c r="AI86" t="n">
+        <v>90</v>
+      </c>
+      <c r="AJ86" t="inlineStr">
+        <is>
+          <t>LDP 100</t>
+        </is>
+      </c>
+      <c r="AK86" t="inlineStr">
+        <is>
+          <t>Kamel</t>
+        </is>
+      </c>
+      <c r="AL86" t="inlineStr"/>
+      <c r="AM86" t="inlineStr">
+        <is>
+          <t>Mahmoud</t>
+        </is>
+      </c>
+      <c r="AN86" t="inlineStr">
+        <is>
+          <t>2025-04-08</t>
+        </is>
+      </c>
+      <c r="AO86" t="inlineStr">
+        <is>
+          <t>04:10:32</t>
+        </is>
+      </c>
+      <c r="AP86" t="inlineStr">
+        <is>
+          <t>The Mentoring Leader</t>
+        </is>
+      </c>
+      <c r="AQ86" t="inlineStr">
+        <is>
+          <t>The Empowering Delegator</t>
+        </is>
+      </c>
+      <c r="AR86" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS86" t="n">
+        <v>78</v>
+      </c>
+      <c r="AT86" t="n">
+        <v>76</v>
+      </c>
+      <c r="AU86" t="n">
+        <v>93</v>
+      </c>
+      <c r="AV86" t="n">
+        <v>90</v>
+      </c>
+      <c r="AW86" t="n">
+        <v>95</v>
+      </c>
+      <c r="AX86" t="n">
+        <v>79</v>
+      </c>
+      <c r="AY86" t="n">
+        <v>88</v>
+      </c>
+      <c r="AZ86" t="n">
+        <v>92</v>
+      </c>
+      <c r="BA86" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB86" t="n">
+        <v>92</v>
+      </c>
+      <c r="BC86" t="n">
+        <v>85</v>
+      </c>
+      <c r="BD86" t="n">
+        <v>71</v>
+      </c>
+      <c r="BE86" t="n">
+        <v>83</v>
+      </c>
+      <c r="BF86" t="n">
+        <v>100</v>
+      </c>
+      <c r="BG86" t="n">
+        <v>98</v>
+      </c>
+      <c r="BH86" t="n">
+        <v>81</v>
+      </c>
+      <c r="BI86" t="n">
+        <v>89</v>
+      </c>
+      <c r="BJ86" t="n">
+        <v>92</v>
+      </c>
+      <c r="BK86" t="n">
+        <v>70</v>
+      </c>
+      <c r="BL86" t="n">
+        <v>90</v>
+      </c>
+      <c r="BM86" t="n">
+        <v>92</v>
+      </c>
+      <c r="BN86" t="n">
+        <v>68</v>
+      </c>
+      <c r="BO86" t="n">
+        <v>80</v>
+      </c>
+      <c r="BP86" t="n">
+        <v>79</v>
+      </c>
+      <c r="BQ86" t="n">
+        <v>69</v>
+      </c>
+      <c r="BR86" t="n">
+        <v>61</v>
+      </c>
+      <c r="BS86" t="n">
+        <v>93</v>
+      </c>
+      <c r="BT86" t="n">
+        <v>89</v>
+      </c>
+      <c r="BU86" t="n">
+        <v>96</v>
+      </c>
+      <c r="BV86" t="n">
+        <v>85</v>
+      </c>
+      <c r="BW86" t="n">
+        <v>88</v>
+      </c>
+      <c r="BX86" t="n">
+        <v>80</v>
+      </c>
+      <c r="BY86" t="n">
+        <v>89</v>
+      </c>
+      <c r="BZ86" t="n">
+        <v>80</v>
+      </c>
+      <c r="CA86" t="n">
+        <v>88</v>
+      </c>
+      <c r="CB86" t="n">
+        <v>90</v>
+      </c>
+      <c r="CC86" t="n">
+        <v>75</v>
+      </c>
+      <c r="CD86" t="n">
+        <v>80</v>
+      </c>
+      <c r="CE86" t="n">
+        <v>74</v>
+      </c>
+      <c r="CF86" t="n">
+        <v>78</v>
+      </c>
+      <c r="CG86" t="n">
+        <v>74</v>
+      </c>
+      <c r="CH86" t="n">
+        <v>67</v>
+      </c>
+      <c r="CI86" t="n">
+        <v>88.8</v>
+      </c>
+      <c r="CJ86" t="n">
+        <v>84</v>
+      </c>
+      <c r="CK86" t="n">
+        <v>77.59999999999999</v>
+      </c>
+      <c r="CL86" t="n">
+        <v>79.264</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
